--- a/data/invoice_aging_sample.xlsx
+++ b/data/invoice_aging_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\portfolio_projects_data_analysis\accounts-payable-analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C1EADB-2247-4B73-8B96-1F4B094E9E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB0E08-2400-467B-A30A-00B6B27446DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37103" yWindow="-98" windowWidth="38594" windowHeight="21075" xr2:uid="{A1424925-6C54-4B34-B411-BEC9A4017AE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A1424925-6C54-4B34-B411-BEC9A4017AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoces Pivot" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1074">
   <si>
     <t>InvoiceID</t>
   </si>
@@ -3194,9 +3194,6 @@
     <t>F000999</t>
   </si>
   <si>
-    <t>Sum of Amount</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -3246,6 +3243,9 @@
   </si>
   <si>
     <t>Nov</t>
+  </si>
+  <si>
+    <t>Average of Amount</t>
   </si>
 </sst>
 </file>
@@ -3732,8 +3732,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3943,68 +3943,82 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Invoces Pivot'!$A$4:$C$23</c:f>
+              <c:f>'Invoces Pivot'!$A$4:$C$27</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>Aug</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Jul</c:v>
+                  <c:pt idx="2">
+                    <c:v>Dec</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>Jun</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Apr</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>Nov</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="10">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>May</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="12">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
                     <c:v>Dec</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Sep</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="17">
                     <c:v>Feb</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Mar</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Apr</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>May</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2024</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="9">
                     <c:v>2025</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2025</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>V0003</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>V0004</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4012,60 +4026,66 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Invoces Pivot'!$D$4:$D$23</c:f>
+              <c:f>'Invoces Pivot'!$D$4:$D$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>743843.70999999985</c:v>
+                  <c:v>19406.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>738857.27</c:v>
+                  <c:v>17312.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>712136.27999999991</c:v>
+                  <c:v>14499.565000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>707284.39</c:v>
+                  <c:v>11705.663333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>696148.62999999989</c:v>
+                  <c:v>10408.450000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>668419.60999999987</c:v>
+                  <c:v>10190.706666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>640392.84</c:v>
+                  <c:v>8177.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>607469.04</c:v>
+                  <c:v>8047.9449999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>601840.66</c:v>
+                  <c:v>7848.873333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>588523.57000000007</c:v>
+                  <c:v>11598.960000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>541663.8400000002</c:v>
+                  <c:v>19637.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>538934.46999999986</c:v>
+                  <c:v>8898.39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>676109.39999999979</c:v>
+                  <c:v>8351.8450000000012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>644120.98000000021</c:v>
+                  <c:v>7133.3999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>505806.24000000005</c:v>
+                  <c:v>6566.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>490694.85</c:v>
+                  <c:v>6187.68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29737.75</c:v>
+                  <c:v>1440.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1359.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3978.3500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,7 +4181,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4847,8 +4867,8 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
@@ -14444,8 +14464,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D77D42B-E780-4D91-899F-CC77EA5620BB}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:D23" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D77D42B-E780-4D91-899F-CC77EA5620BB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:D27" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="9">
     <pivotField compact="0" showAll="0">
       <items count="1001">
@@ -15454,56 +15474,56 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" sortType="descending">
       <items count="51">
-        <item x="30"/>
-        <item x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="26"/>
         <item x="31"/>
         <item x="37"/>
-        <item x="9"/>
-        <item x="34"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="49"/>
-        <item x="46"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="39"/>
-        <item x="13"/>
-        <item x="36"/>
-        <item x="47"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="41"/>
-        <item x="20"/>
-        <item x="17"/>
-        <item x="45"/>
-        <item x="2"/>
-        <item x="29"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="27"/>
-        <item x="3"/>
-        <item x="25"/>
-        <item x="8"/>
-        <item x="21"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item x="43"/>
-        <item x="48"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="28"/>
-        <item x="38"/>
-        <item x="35"/>
-        <item x="42"/>
-        <item x="22"/>
-        <item x="44"/>
-        <item x="40"/>
-        <item x="14"/>
+        <item h="1" x="9"/>
+        <item h="1" x="34"/>
+        <item h="1" x="23"/>
+        <item h="1" x="19"/>
+        <item h="1" x="1"/>
+        <item h="1" x="24"/>
+        <item h="1" x="12"/>
+        <item h="1" x="49"/>
+        <item h="1" x="46"/>
+        <item h="1" x="11"/>
+        <item h="1" x="10"/>
+        <item h="1" x="18"/>
+        <item h="1" x="39"/>
+        <item h="1" x="13"/>
+        <item h="1" x="36"/>
+        <item h="1" x="47"/>
+        <item h="1" x="15"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="41"/>
+        <item h="1" x="20"/>
+        <item h="1" x="17"/>
+        <item h="1" x="45"/>
+        <item h="1" x="2"/>
+        <item h="1" x="29"/>
+        <item h="1" x="33"/>
+        <item h="1" x="32"/>
+        <item h="1" x="27"/>
+        <item h="1" x="3"/>
+        <item h="1" x="25"/>
+        <item h="1" x="8"/>
+        <item h="1" x="21"/>
+        <item h="1" x="16"/>
+        <item h="1" x="5"/>
+        <item h="1" x="43"/>
+        <item h="1" x="48"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" x="28"/>
+        <item h="1" x="38"/>
+        <item h="1" x="35"/>
+        <item h="1" x="42"/>
+        <item h="1" x="22"/>
+        <item h="1" x="44"/>
+        <item h="1" x="40"/>
+        <item h="1" x="14"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -15958,10 +15978,10 @@
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
+        <item x="4"/>
         <item sd="0" x="5"/>
         <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
+        <item x="7"/>
         <item sd="0" x="8"/>
         <item sd="0" x="9"/>
         <item sd="0" x="10"/>
@@ -15995,74 +16015,86 @@
       <items count="5">
         <item sd="0" x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="3">
+    <field x="1"/>
     <field x="8"/>
     <field x="6"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="24">
     <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="9"/>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
       <x v="3"/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
-    <i r="1">
+    <i r="2">
       <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -16072,8 +16104,65 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Average of Amount" fld="5" subtotal="average" baseField="6" baseItem="11" numFmtId="4"/>
   </dataFields>
+  <conditionalFormats count="2">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="4">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="6" count="9">
+              <x v="1"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="4">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="6" count="8">
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="12"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -16429,197 +16518,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B49AFE7-B10B-4189-89AB-507A6D8DEFC9}">
-  <dimension ref="A3:D23"/>
+  <dimension ref="A3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" t="s">
-        <v>1056</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7785514.3100000005</v>
+        <v>81</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11112.677599999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10959.114736842104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19406.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D7" s="3">
+        <v>17312.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>1068</v>
       </c>
-      <c r="D5" s="2">
-        <v>743843.70999999985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D6" s="2">
-        <v>738857.27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D7" s="2">
-        <v>712136.27999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D8" s="3">
+        <v>14499.565000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D9" s="3">
+        <v>11705.663333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10408.450000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10190.706666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>1064</v>
       </c>
-      <c r="D8" s="2">
-        <v>707284.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D9" s="2">
-        <v>696148.62999999989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D12" s="3">
+        <v>8177.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8047.9449999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>1072</v>
       </c>
-      <c r="D10" s="2">
-        <v>668419.60999999987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D11" s="2">
-        <v>640392.84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D12" s="2">
-        <v>607469.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D13" s="2">
-        <v>601840.66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D14" s="2">
-        <v>588523.57000000007</v>
+      <c r="D14" s="3">
+        <v>7848.873333333333</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11598.960000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6723.5535714285716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7472.2454545454539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D18" s="3">
+        <v>19637.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8898.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>1071</v>
       </c>
-      <c r="D15" s="2">
-        <v>541663.8400000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D16" s="2">
-        <v>538934.46999999986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2346469.2200000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D20" s="3">
+        <v>8351.8450000000012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7133.3999999999987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>1070</v>
       </c>
-      <c r="D18" s="2">
-        <v>676109.39999999979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D22" s="3">
+        <v>6566.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6187.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1440.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>1062</v>
       </c>
-      <c r="D19" s="2">
-        <v>644120.98000000021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D20" s="2">
-        <v>505806.24000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D21" s="2">
-        <v>490694.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D22" s="2">
-        <v>29737.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D23" s="2">
-        <v>10131983.530000001</v>
+      <c r="D25" s="3">
+        <v>1359.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3978.3500000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9537.0946153846144</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="D6:D14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D18:D25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
